--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1868197.33992401</v>
+        <v>1972376.974375081</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9975904.321399318</v>
+        <v>9975904.32139932</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>113.9096336732663</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>96.32693285396928</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>64.35112928542286</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>13.42874471570741</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>96.51881667305288</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>20.47554896769088</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>24.89034290034514</v>
+        <v>47.86771985586797</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1072,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8185470786297</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>3.182585533882316</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>98.83451610078301</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>39.68014844805703</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,16 +1584,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>139.1630968205461</v>
       </c>
       <c r="X13" t="n">
-        <v>185.4048731212358</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>65.44930784064577</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>185.4048731212358</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428269</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2324,10 +2326,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8253826161861753</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>212.4076860934765</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2801,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>285.5970594671156</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3038,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417117</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>213.5398874823017</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>172.3645574474256</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>53.82913822150097</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>91.89996056624886</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>120.6889225686074</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>162.5316204294557</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>13.72582864853782</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.524138292261</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>144.6100405317697</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2120.647175555803</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1751.684658615392</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1393.418960008641</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1007.630707410397</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>596.6448026207893</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>181.5723524657857</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
@@ -4331,7 +4333,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4367,13 +4369,13 @@
         <v>2884.252265792695</v>
       </c>
       <c r="W2" t="n">
-        <v>2884.252265792695</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X2" t="n">
-        <v>2510.786507531615</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y2" t="n">
-        <v>2120.647175555803</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4431,16 +4433,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199866</v>
@@ -4452,7 +4454,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2320.988771034578</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034578</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622242</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039849</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193525</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>2822.322864763051</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U4" t="n">
-        <v>2757.321724070704</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V4" t="n">
-        <v>2502.637235864818</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="W4" t="n">
-        <v>2502.637235864818</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>2502.637235864818</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>2502.637235864818</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2735.124556099686</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W5" t="n">
-        <v>2382.355900829572</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X5" t="n">
-        <v>2008.890142568492</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y5" t="n">
-        <v>1618.75081059268</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>850.493580837645</v>
+        <v>971.028729691545</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,10 +4746,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
         <v>1735.608663915319</v>
@@ -4756,19 +4758,19 @@
         <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.608663915319</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V7" t="n">
-        <v>1480.924175709432</v>
+        <v>1191.821308835075</v>
       </c>
       <c r="W7" t="n">
-        <v>1480.924175709432</v>
+        <v>1191.821308835075</v>
       </c>
       <c r="X7" t="n">
-        <v>1252.934624811415</v>
+        <v>1191.821308835075</v>
       </c>
       <c r="Y7" t="n">
-        <v>1032.142045667885</v>
+        <v>971.028729691545</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C8" t="n">
-        <v>1491.569348694472</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1133.303650087721</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>747.515397489477</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>336.5294926998694</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>325.49744658527</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4820,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734405</v>
+        <v>2068.760653318132</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758593</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>561.7003711548124</v>
+        <v>332.773976541745</v>
       </c>
       <c r="C10" t="n">
-        <v>561.7003711548124</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>411.5837317424766</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>263.6706381600835</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>263.6706381600835</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>263.6706381600835</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5002,10 +5004,10 @@
         <v>782.4929502983425</v>
       </c>
       <c r="X10" t="n">
-        <v>782.4929502983425</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y10" t="n">
-        <v>561.7003711548124</v>
+        <v>514.4224413719847</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5054,10 +5056,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.159972732779</v>
+        <v>1802.364528928005</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2354.274259167292</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5194,16 +5196,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5230,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.385853854706</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5431,16 +5433,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5598,22 +5600,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075813</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5835,10 +5837,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2588.787486630498</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>2588.787486630498</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>2588.787486630498</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>2421.591387345378</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5981,10 +5983,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6005,34 +6007,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6151,46 +6153,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797699</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>982.5066286471044</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="26">
@@ -6212,28 +6214,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803938</v>
+        <v>2490.32382148308</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>3087.702309109632</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6452,58 +6454,58 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111726</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190824</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.979202260897</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>552.8412329032295</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>552.8412329032295</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V34" t="n">
-        <v>1472.688997811978</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W34" t="n">
-        <v>1183.271827775017</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>955.2822768769994</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>734.4896977334693</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2951.54259528685</v>
+        <v>2884.99926749824</v>
       </c>
       <c r="C37" t="n">
-        <v>2782.606412358944</v>
+        <v>2884.99926749824</v>
       </c>
       <c r="D37" t="n">
-        <v>2632.489772946608</v>
+        <v>2734.882628085904</v>
       </c>
       <c r="E37" t="n">
-        <v>2484.576679364215</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="F37" t="n">
-        <v>2337.686731866304</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
         <v>2337.686731866304</v>
@@ -7117,28 +7119,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>4415.150075057287</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>4126.074848401485</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V37" t="n">
-        <v>3871.390360195598</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W37" t="n">
-        <v>3581.973190158637</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X37" t="n">
-        <v>3353.98363926062</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y37" t="n">
-        <v>3133.19106011709</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="38">
@@ -7166,22 +7168,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7196,16 +7198,16 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>297.8113689946113</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,13 +7429,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>727.9786782557277</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>559.0424953278208</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>399.701848174921</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1130.419722229497</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>909.6271430859674</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,52 +7636,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703784</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>550.637687073279</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>550.637687073279</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073279</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908859</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908859</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2233.846631820775</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2014.245166843716</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.169940187914</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1470.485451982027</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1181.068281945066</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>953.0787310470489</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>732.2861519035188</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23470,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>147.3599015160449</v>
       </c>
       <c r="X13" t="n">
-        <v>40.30478226780136</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23659,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>79.97174018228547</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219412</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>65.54986409393551</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>6.176967258618276</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0.5874149221285165</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>38.59775584152632</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>114.1584408891654</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>126.0028419604363</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>125.5054897610394</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>44.83521572366143</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2.992517862813116</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>211.9838267404993</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>36.41624546987492</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>859092.8650097406</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>859092.8650097402</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>859092.8650097406</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097406</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>859092.8650097407</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049984</v>
@@ -26323,34 +26325,34 @@
         <v>565002.6197830043</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="G2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="M2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="N2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316946</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26442,10 +26444,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26457,7 +26459,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181825</v>
+        <v>12386.92018181813</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26524,46 @@
         <v>-953523.4023371568</v>
       </c>
       <c r="C6" t="n">
-        <v>375221.3433904357</v>
+        <v>375221.3433904358</v>
       </c>
       <c r="D6" t="n">
-        <v>375221.3433904357</v>
+        <v>375221.3433904354</v>
       </c>
       <c r="E6" t="n">
-        <v>126080.7079699238</v>
+        <v>126080.7079699242</v>
       </c>
       <c r="F6" t="n">
-        <v>451493.1697772792</v>
+        <v>451493.1697772791</v>
       </c>
       <c r="G6" t="n">
-        <v>451493.1697772792</v>
+        <v>451493.169777279</v>
       </c>
       <c r="H6" t="n">
-        <v>451493.1697772792</v>
+        <v>451493.1697772791</v>
       </c>
       <c r="I6" t="n">
         <v>451493.1697772793</v>
       </c>
       <c r="J6" t="n">
-        <v>233961.9673800017</v>
+        <v>233961.9673800018</v>
       </c>
       <c r="K6" t="n">
-        <v>451493.1697772792</v>
+        <v>451493.1697772791</v>
       </c>
       <c r="L6" t="n">
-        <v>451493.1697772793</v>
+        <v>451493.1697772794</v>
       </c>
       <c r="M6" t="n">
         <v>366438.1418417675</v>
       </c>
       <c r="N6" t="n">
+        <v>451493.169777279</v>
+      </c>
+      <c r="O6" t="n">
+        <v>451493.1697772792</v>
+      </c>
+      <c r="P6" t="n">
         <v>451493.1697772793</v>
-      </c>
-      <c r="O6" t="n">
-        <v>451493.1697772794</v>
-      </c>
-      <c r="P6" t="n">
-        <v>451493.1697772791</v>
       </c>
     </row>
   </sheetData>
@@ -26790,10 +26792,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26816,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="O4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26963,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>180.6981307140542</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>289.9110058020843</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>221.86070892019</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>273.0942536208836</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>268.7540750979547</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>307.276709502444</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>142.3564781982827</v>
+        <v>119.3791012427599</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>79.78921730869072</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>366.5485151445867</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>45.92049881353778</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>178.9045049040378</v>
       </c>
     </row>
     <row r="11">
@@ -29764,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>334.7693860946159</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32077,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>339.3493584601592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968506</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32230,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32318,13 +32320,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32335,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32555,13 +32557,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868578</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32789,28 +32791,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209185</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>638.0665277849409</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>344.6306853939244</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>510.8679233250717</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O36" t="n">
-        <v>332.1692388321073</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N39" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
@@ -34451,34 +34453,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>619.2604051955774</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>200.7949786802857</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>200.7949786802851</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748323</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35983,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36519,7 +36521,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191269</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>110.1905571410443</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>506.7248157016076</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>206.7892464195654</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>379.5262112417385</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O36" t="n">
-        <v>189.5729943876629</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N39" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1972376.974375081</v>
+        <v>1968364.36436109</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9975904.32139932</v>
+        <v>9975904.321399318</v>
       </c>
     </row>
     <row r="11">
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>96.32693285396928</v>
+        <v>227.7172236952933</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734075887</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>13.42874471570741</v>
+        <v>203.1977700471482</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>96.51881667305288</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>65.33825739391077</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396202</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>47.86771985586797</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>61.42978662487851</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983812</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>17.35112070699511</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>3.182585533882316</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>71.98153210089519</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1353,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>39.68014844805703</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>212.560296663224</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>139.1630968205461</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>65.44930784064577</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>160.6789846282041</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.702514956955</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>117.6579322793583</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.4076860934765</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>19.91555826189057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>60.11729550773704</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>83.06560892428168</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>172.3645574474256</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.82913822150097</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>120.6889225686074</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>162.5316204294557</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.48361052258</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="X2" t="n">
-        <v>2531.48361052258</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.573581468608</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064756</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080135</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986308</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962569</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4485,46 +4485,46 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W4" t="n">
         <v>1722.044275313594</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1032.061124352531</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="C5" t="n">
-        <v>934.5673701373257</v>
+        <v>1329.547110979146</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>971.2814123723956</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>585.4931597741513</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>174.5072549845437</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392464</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y5" t="n">
-        <v>1418.660964416652</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228005</v>
@@ -4658,28 +4658,28 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>971.028729691545</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>838.5106002518377</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>688.3939608395019</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>540.4808672571088</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>393.5909197591984</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>225.8880831339174</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040962</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1191.821308835075</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W7" t="n">
-        <v>1191.821308835075</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>1191.821308835075</v>
+        <v>1409.887827153514</v>
       </c>
       <c r="Y7" t="n">
-        <v>971.028729691545</v>
+        <v>1189.095248009984</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1696.147705894841</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1337.88200728809</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>952.093754689846</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>541.1078499002385</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>126.035399745235</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4822,10 +4822,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2068.760653318132</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y8" t="n">
-        <v>1678.62132134232</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>332.773976541745</v>
+        <v>753.0765981364621</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>584.1404152085552</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>434.0237757962194</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>286.1106822138263</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>139.2207347159159</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>139.2207347159159</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>782.4929502983425</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X10" t="n">
-        <v>554.5033994003252</v>
+        <v>1155.517642110232</v>
       </c>
       <c r="Y10" t="n">
-        <v>514.4224413719847</v>
+        <v>934.7250629667018</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928005</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167292</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,55 +5412,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.9745311434712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>701.0383482155643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>550.9217088032285</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E16" t="n">
-        <v>550.9217088032285</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
@@ -5469,19 +5469,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052219</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015258</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.415575117241</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.622995973711</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5509,37 +5509,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>696.708435085168</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>527.7722521572612</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>878.3568999154078</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>929.7309773356195</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>2490.32382148308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3087.702309109632</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,55 +6360,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>113.9333885650331</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6417,19 +6417,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2884.99926749824</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>2884.99926749824</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>2734.882628085904</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7168,25 +7168,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7198,16 +7198,16 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>297.8113689946113</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>696.7084350851671</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>546.5917956728314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>546.5917956728314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>399.701848174921</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.288530476235451e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>4.845153664064242</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>147.3599015160449</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>79.97174018228547</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>30.95754073885401</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.176967258618276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>226.405702828854</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>65.54986409393068</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>114.1584408891654</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>126.0028419604363</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>44.83521572366143</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>2.992517862813116</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>873682.7936927316</v>
+        <v>873682.7936927318</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097406</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859092.8650097406</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049986</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049985</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049983</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="F2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="H2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="J2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>565002.6197830046</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830042</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>3.359841684869025e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316957</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316951</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316942</v>
@@ -26429,7 +26429,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181808</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
@@ -26447,7 +26447,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-953523.4023371568</v>
+        <v>-953523.4023371564</v>
       </c>
       <c r="C6" t="n">
-        <v>375221.3433904358</v>
+        <v>375221.3433904355</v>
       </c>
       <c r="D6" t="n">
-        <v>375221.3433904354</v>
+        <v>375221.3433904356</v>
       </c>
       <c r="E6" t="n">
-        <v>126080.7079699242</v>
+        <v>125733.3287155667</v>
       </c>
       <c r="F6" t="n">
-        <v>451493.1697772791</v>
+        <v>451145.7905229226</v>
       </c>
       <c r="G6" t="n">
-        <v>451493.169777279</v>
+        <v>451145.7905229221</v>
       </c>
       <c r="H6" t="n">
-        <v>451493.1697772791</v>
+        <v>451145.7905229225</v>
       </c>
       <c r="I6" t="n">
-        <v>451493.1697772793</v>
+        <v>451145.7905229225</v>
       </c>
       <c r="J6" t="n">
-        <v>233961.9673800018</v>
+        <v>233614.5881256446</v>
       </c>
       <c r="K6" t="n">
-        <v>451493.1697772791</v>
+        <v>451145.7905229224</v>
       </c>
       <c r="L6" t="n">
-        <v>451493.1697772794</v>
+        <v>451145.7905229222</v>
       </c>
       <c r="M6" t="n">
-        <v>366438.1418417675</v>
+        <v>366090.7625874103</v>
       </c>
       <c r="N6" t="n">
-        <v>451493.169777279</v>
+        <v>451145.7905229224</v>
       </c>
       <c r="O6" t="n">
-        <v>451493.1697772792</v>
+        <v>451145.7905229225</v>
       </c>
       <c r="P6" t="n">
-        <v>451493.1697772793</v>
+        <v>451145.7905229224</v>
       </c>
     </row>
   </sheetData>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>289.9110058020843</v>
+        <v>158.5207149607603</v>
       </c>
     </row>
     <row r="3">
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>273.0942536208836</v>
+        <v>83.32522828944278</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>268.7540750979547</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>345.5834682595427</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>119.3791012427599</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>83.32522828944226</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,22 +27824,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>277.2566436803253</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>366.5485151445867</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>72.77348281342559</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>178.9045049040378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>301.644515672455</v>
       </c>
       <c r="P12" t="n">
-        <v>334.7693860946159</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>282.8216163968506</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>316.2462973459355</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209185</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>284.1014732918236</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>159.0482712280106</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7949786802857</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>140.6875824748323</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.264523259914</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410443</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1968364.36436109</v>
+        <v>1970124.894663875</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9975904.321399318</v>
+        <v>9975904.32139932</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>370.0648965483579</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>227.7172236952933</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471482</v>
+        <v>114.2656173771019</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>65.33825739391077</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>190.2651610286889</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>61.42978662487851</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>24.01006515217614</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>148.7118207940823</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>17.35112070699511</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>71.98153210089519</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>145.6718493954791</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>212.560296663224</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>160.6789846282041</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>153.5842618151914</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
-        <v>117.6579322793583</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8674042714177</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,16 +2769,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>60.11729550773704</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>78.6882778203391</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>102.1557845699818</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>30.65104903283332</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>103.1686991936197</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>34.22340015155905</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.7846764101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.7846764101</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.7846764101</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2961.7846764101</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4400,13 +4400,13 @@
         <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468608</v>
+        <v>936.5735814686079</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064756</v>
+        <v>846.0716871064755</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080135</v>
+        <v>827.0643955080134</v>
       </c>
       <c r="J3" t="n">
         <v>920.7416649986308</v>
@@ -4418,19 +4418,19 @@
         <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962569</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
         <v>3325.461468201687</v>
@@ -4448,7 +4448,7 @@
         <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
         <v>2078.071769341961</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>2489.924953962485</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>3120.355548834273</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>2892.365997936255</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>2671.573418792725</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1698.509627919558</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1329.547110979146</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>971.2814123723956</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>585.4931597741513</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>174.5072549845437</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3023.128121794156</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2769.597645067992</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919558</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919558</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518377</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395019</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571088</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5909197591984</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>225.8880831339174</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088492</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051532</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153514</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009984</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065.110222835252</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="C8" t="n">
-        <v>1696.147705894841</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="D8" t="n">
-        <v>1337.88200728809</v>
+        <v>673.7954257457811</v>
       </c>
       <c r="E8" t="n">
-        <v>952.093754689846</v>
+        <v>673.7954257457811</v>
       </c>
       <c r="F8" t="n">
-        <v>541.1078499002385</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>126.035399745235</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875186</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y8" t="n">
-        <v>2451.710062899374</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>753.0765981364621</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>584.1404152085552</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>434.0237757962194</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>286.1106822138263</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>139.2207347159159</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>139.2207347159159</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.507193008249</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.517642110232</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.7250629667018</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,7 +5035,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,46 +5044,46 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516145</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.07903472198</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>996.5276398439756</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>827.5914569160688</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>677.474817503733</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>529.5617239213399</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>382.6717764234295</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>1178.176104674215</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,19 +5293,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,55 +5412,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282754</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458823</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
@@ -5469,19 +5469,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1600.295939607161</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1310.8787695702</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>1082.889218672183</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="17">
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,19 +5527,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.708435085168</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572612</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993916</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956955</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058938</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154078</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6126,16 +6126,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,37 +6147,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
         <v>1746.193029533436</v>
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,31 +6238,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>198.0274703142544</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.288530476235451e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>19.8522888967897</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>4.845153664064242</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>98.55338150863656</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
-        <v>30.95754073885401</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>45.37941682721009</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>226.405702828854</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>147.0213775686981</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>46.45968844823057</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>134.8730892594355</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>62.35543909864911</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>873682.7936927318</v>
+        <v>873682.7936927316</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097406</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>859092.8650097406</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="G2" t="n">
         <v>565002.6197830045</v>
@@ -26334,10 +26334,10 @@
         <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830045</v>
@@ -26352,7 +26352,7 @@
         <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.359841684869025e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316957</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316951</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-953523.4023371564</v>
+        <v>-953523.4023371568</v>
       </c>
       <c r="C6" t="n">
-        <v>375221.3433904355</v>
+        <v>375221.3433904358</v>
       </c>
       <c r="D6" t="n">
-        <v>375221.3433904356</v>
+        <v>375221.3433904358</v>
       </c>
       <c r="E6" t="n">
-        <v>125733.3287155667</v>
+        <v>126045.9700444885</v>
       </c>
       <c r="F6" t="n">
-        <v>451145.7905229226</v>
+        <v>451458.4318518438</v>
       </c>
       <c r="G6" t="n">
-        <v>451145.7905229221</v>
+        <v>451458.4318518436</v>
       </c>
       <c r="H6" t="n">
-        <v>451145.7905229225</v>
+        <v>451458.4318518436</v>
       </c>
       <c r="I6" t="n">
-        <v>451145.7905229225</v>
+        <v>451458.4318518435</v>
       </c>
       <c r="J6" t="n">
-        <v>233614.5881256446</v>
+        <v>233927.2294545661</v>
       </c>
       <c r="K6" t="n">
-        <v>451145.7905229224</v>
+        <v>451458.4318518436</v>
       </c>
       <c r="L6" t="n">
-        <v>451145.7905229222</v>
+        <v>451458.4318518436</v>
       </c>
       <c r="M6" t="n">
-        <v>366090.7625874103</v>
+        <v>366403.4039163316</v>
       </c>
       <c r="N6" t="n">
-        <v>451145.7905229224</v>
+        <v>451458.4318518436</v>
       </c>
       <c r="O6" t="n">
-        <v>451145.7905229225</v>
+        <v>451458.4318518436</v>
       </c>
       <c r="P6" t="n">
-        <v>451145.7905229224</v>
+        <v>451458.4318518436</v>
       </c>
     </row>
   </sheetData>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>12.66894511512271</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>158.5207149607603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944278</v>
+        <v>172.2573809594891</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>345.5834682595427</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>13.65280911093126</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>83.32522828944226</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>201.699590236861</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>258.1642249476292</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>277.2566436803253</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>72.77348281342559</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28067,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>301.644515672455</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>159.0482712280106</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
